--- a/source/points.xlsx
+++ b/source/points.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">sale point</t>
   </si>
   <si>
     <t xml:space="preserve">Туркубаева 19</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">AutoCity</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">market point</t>
   </si>
   <si>
     <t xml:space="preserve">р.Красное поле</t>
@@ -367,7 +367,7 @@
     <t xml:space="preserve">RP 1</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">chain point</t>
   </si>
   <si>
     <t xml:space="preserve">RP 2</t>
@@ -592,10 +592,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -606,6 +602,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -703,15 +703,15 @@
   </sheetPr>
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G93" activeCellId="0" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +783,7 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -795,7 +795,7 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -818,7 +818,7 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -915,21 +915,21 @@
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -941,19 +941,19 @@
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="5" t="n">
         <v>555</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -970,22 +970,22 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -996,10 +996,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1008,10 +1008,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1036,10 +1036,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1048,10 +1048,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1060,10 +1060,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       <c r="C31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1096,10 +1096,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1108,10 +1108,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1120,10 +1120,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1162,7 +1162,7 @@
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1234,10 +1234,10 @@
         <v>50</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1246,10 +1246,10 @@
         <v>51</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1270,10 +1270,10 @@
         <v>53</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1306,10 +1306,10 @@
         <v>57</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       <c r="C51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1352,10 +1352,10 @@
         <v>61</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1364,10 +1364,10 @@
         <v>62</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       <c r="B59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -1442,7 +1442,7 @@
       <c r="B60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1454,7 +1454,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1481,7 +1481,7 @@
       <c r="C63" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1490,10 +1490,10 @@
         <v>72</v>
       </c>
       <c r="B64" s="3"/>
-      <c r="C64" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1502,10 +1502,10 @@
         <v>73</v>
       </c>
       <c r="B65" s="3"/>
-      <c r="C65" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="C66" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1526,10 +1526,10 @@
         <v>75</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="C67" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1588,10 +1588,10 @@
         <v>80</v>
       </c>
       <c r="B72" s="3"/>
-      <c r="C72" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1600,10 +1600,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="3"/>
-      <c r="C73" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1612,10 +1612,10 @@
         <v>82</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="C75" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1636,10 +1636,10 @@
         <v>86</v>
       </c>
       <c r="B76" s="3"/>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1648,10 +1648,10 @@
         <v>87</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1660,10 +1660,10 @@
         <v>88</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       <c r="C79" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1696,10 +1696,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -1710,14 +1710,14 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
         <v>94</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -1738,10 +1738,10 @@
         <v>95</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1750,10 +1750,10 @@
         <v>96</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1762,10 +1762,10 @@
         <v>97</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       <c r="C87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1786,10 +1786,10 @@
         <v>100</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1798,10 +1798,10 @@
         <v>101</v>
       </c>
       <c r="B89" s="3"/>
-      <c r="C89" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="C89" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1810,10 +1810,10 @@
         <v>102</v>
       </c>
       <c r="B90" s="10"/>
-      <c r="C90" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" s="11" t="s">
+      <c r="C90" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1822,10 +1822,10 @@
         <v>103</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1834,10 +1834,10 @@
         <v>104</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="C92" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1846,10 +1846,10 @@
         <v>105</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="C93" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1858,10 +1858,10 @@
         <v>106</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="C94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1870,10 +1870,10 @@
         <v>107</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="C95" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1882,10 +1882,10 @@
         <v>108</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C96" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1894,10 +1894,10 @@
         <v>109</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1906,10 +1906,10 @@
         <v>110</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C98" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1918,10 +1918,10 @@
         <v>111</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="C99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1930,10 +1930,10 @@
         <v>112</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C100" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1942,10 +1942,10 @@
         <v>113</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C101" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1954,10 +1954,10 @@
         <v>113</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="C102" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1966,10 +1966,10 @@
         <v>114</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D103" s="11" t="s">
+      <c r="C103" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1978,10 +1978,10 @@
         <v>116</v>
       </c>
       <c r="B104" s="3"/>
-      <c r="C104" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="C104" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1990,10 +1990,10 @@
         <v>117</v>
       </c>
       <c r="B105" s="3"/>
-      <c r="C105" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="C105" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2002,10 +2002,10 @@
         <v>118</v>
       </c>
       <c r="B106" s="3"/>
-      <c r="C106" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D106" s="4" t="s">
+      <c r="C106" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2014,10 +2014,10 @@
         <v>119</v>
       </c>
       <c r="B107" s="3"/>
-      <c r="C107" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D107" s="4" t="s">
+      <c r="C107" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2026,10 +2026,10 @@
         <v>120</v>
       </c>
       <c r="B108" s="3"/>
-      <c r="C108" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="C108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2038,10 +2038,10 @@
         <v>121</v>
       </c>
       <c r="B109" s="3"/>
-      <c r="C109" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" s="4" t="s">
+      <c r="C109" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2050,10 +2050,10 @@
         <v>122</v>
       </c>
       <c r="B110" s="3"/>
-      <c r="C110" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" s="4" t="s">
+      <c r="C110" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2062,10 +2062,10 @@
         <v>123</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D111" s="4" t="s">
+      <c r="C111" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2074,10 +2074,10 @@
         <v>124</v>
       </c>
       <c r="B112" s="3"/>
-      <c r="C112" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D112" s="4" t="s">
+      <c r="C112" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2086,10 +2086,10 @@
         <v>125</v>
       </c>
       <c r="B113" s="3"/>
-      <c r="C113" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="C113" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2098,10 +2098,10 @@
         <v>126</v>
       </c>
       <c r="B114" s="3"/>
-      <c r="C114" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" s="4" t="s">
+      <c r="C114" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2110,10 +2110,10 @@
         <v>127</v>
       </c>
       <c r="B115" s="3"/>
-      <c r="C115" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="C115" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2122,10 +2122,10 @@
         <v>128</v>
       </c>
       <c r="B116" s="3"/>
-      <c r="C116" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D116" s="4" t="s">
+      <c r="C116" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2134,10 +2134,10 @@
         <v>129</v>
       </c>
       <c r="B117" s="3"/>
-      <c r="C117" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="C117" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2146,10 +2146,10 @@
         <v>130</v>
       </c>
       <c r="B118" s="3"/>
-      <c r="C118" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="4" t="s">
+      <c r="C118" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2158,10 +2158,10 @@
         <v>131</v>
       </c>
       <c r="B119" s="3"/>
-      <c r="C119" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="C119" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2170,10 +2170,10 @@
         <v>132</v>
       </c>
       <c r="B120" s="3"/>
-      <c r="C120" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" s="4" t="s">
+      <c r="C120" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2182,10 +2182,10 @@
         <v>133</v>
       </c>
       <c r="B121" s="3"/>
-      <c r="C121" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D121" s="4" t="s">
+      <c r="C121" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2194,10 +2194,10 @@
         <v>134</v>
       </c>
       <c r="B122" s="3"/>
-      <c r="C122" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" s="4" t="s">
+      <c r="C122" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2206,10 +2206,10 @@
         <v>135</v>
       </c>
       <c r="B123" s="3"/>
-      <c r="C123" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D123" s="4" t="s">
+      <c r="C123" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2218,10 +2218,10 @@
         <v>136</v>
       </c>
       <c r="B124" s="3"/>
-      <c r="C124" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" s="4" t="s">
+      <c r="C124" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2230,10 +2230,10 @@
         <v>137</v>
       </c>
       <c r="B125" s="3"/>
-      <c r="C125" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" s="4" t="s">
+      <c r="C125" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2242,10 +2242,10 @@
         <v>138</v>
       </c>
       <c r="B126" s="3"/>
-      <c r="C126" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D126" s="4" t="s">
+      <c r="C126" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2254,10 +2254,10 @@
         <v>139</v>
       </c>
       <c r="B127" s="10"/>
-      <c r="C127" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127" s="11" t="s">
+      <c r="C127" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2266,10 +2266,10 @@
         <v>140</v>
       </c>
       <c r="B128" s="3"/>
-      <c r="C128" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D128" s="4" t="s">
+      <c r="C128" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2278,10 +2278,10 @@
         <v>141</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="C129" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2290,10 +2290,10 @@
         <v>142</v>
       </c>
       <c r="B130" s="3"/>
-      <c r="C130" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D130" s="4" t="s">
+      <c r="C130" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2302,10 +2302,10 @@
         <v>143</v>
       </c>
       <c r="B131" s="3"/>
-      <c r="C131" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="C131" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
         <v>144</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C132" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2325,10 +2325,10 @@
       <c r="A133" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="C133" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2337,10 +2337,10 @@
         <v>146</v>
       </c>
       <c r="B134" s="3"/>
-      <c r="C134" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D134" s="4" t="s">
+      <c r="C134" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2349,10 +2349,10 @@
         <v>147</v>
       </c>
       <c r="B135" s="3"/>
-      <c r="C135" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="4" t="s">
+      <c r="C135" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2361,10 +2361,10 @@
         <v>148</v>
       </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D136" s="4" t="s">
+      <c r="C136" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2373,10 +2373,10 @@
         <v>149</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D137" s="4" t="s">
+      <c r="C137" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2385,10 +2385,10 @@
         <v>150</v>
       </c>
       <c r="B138" s="3"/>
-      <c r="C138" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="C138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2400,14 +2400,14 @@
       <c r="C139" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="7" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
